--- a/table_model____spi-6__lasso_($\beta_=_$0.1).xlsx
+++ b/table_model____spi-6__lasso_($\beta_=_$0.1).xlsx
@@ -690,16 +690,16 @@
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.485755477677376</v>
+        <v>1.421306528448042</v>
       </c>
       <c r="C2">
-        <v>1.53111956701827</v>
+        <v>1.445268066521802</v>
       </c>
       <c r="D2">
-        <v>1.522686648231236</v>
+        <v>1.482648262980686</v>
       </c>
       <c r="E2">
-        <v>1.5244634150412</v>
+        <v>1.450317697647643</v>
       </c>
       <c r="F2">
         <v>1.487152380514529</v>
@@ -845,16 +845,16 @@
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.097027519159264</v>
+        <v>1.112492663025786</v>
       </c>
       <c r="C3">
-        <v>1.150486355209325</v>
+        <v>1.117737191075205</v>
       </c>
       <c r="D3">
-        <v>1.138680151592543</v>
+        <v>1.120571980406132</v>
       </c>
       <c r="E3">
-        <v>1.144699864965132</v>
+        <v>1.198847369834348</v>
       </c>
       <c r="F3">
         <v>1.122853375802331</v>
@@ -1000,16 +1000,16 @@
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.3548378201792945</v>
+        <v>0.3790303676999931</v>
       </c>
       <c r="C4">
-        <v>0.3782785609204047</v>
+        <v>0.3692966247932867</v>
       </c>
       <c r="D4">
-        <v>0.3581965682878936</v>
+        <v>0.3531539472278742</v>
       </c>
       <c r="E4">
-        <v>0.3553578104489346</v>
+        <v>0.4109840960323802</v>
       </c>
       <c r="F4">
         <v>0.3490637136861305</v>
@@ -1155,16 +1155,16 @@
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.5743173097416605</v>
+        <v>0.5409810141885066</v>
       </c>
       <c r="C5">
-        <v>0.5476419870762677</v>
+        <v>0.5405592577934806</v>
       </c>
       <c r="D5">
-        <v>0.5440108221720215</v>
+        <v>0.575634945549738</v>
       </c>
       <c r="E5">
-        <v>0.5498289183338249</v>
+        <v>0.6287398249693308</v>
       </c>
       <c r="F5">
         <v>0.5780075177870737</v>
@@ -1310,16 +1310,16 @@
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.6270449888909932</v>
+        <v>-0.5648136418777786</v>
       </c>
       <c r="C6">
-        <v>-0.6215863912244017</v>
+        <v>-0.5751804204717322</v>
       </c>
       <c r="D6">
-        <v>-0.6110828049515971</v>
+        <v>-0.5645182581183803</v>
       </c>
       <c r="E6">
-        <v>-0.6161968555186949</v>
+        <v>-0.6177693952004371</v>
       </c>
       <c r="F6">
         <v>-0.5681744068221324</v>
@@ -1465,16 +1465,16 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.6871436645748709</v>
+        <v>-0.6416742800592723</v>
       </c>
       <c r="C7">
-        <v>-0.6729625548604892</v>
+        <v>-0.6119274785378229</v>
       </c>
       <c r="D7">
-        <v>-0.6640236485548139</v>
+        <v>-0.6061561581329655</v>
       </c>
       <c r="E7">
-        <v>-0.6687226849814751</v>
+        <v>-0.6306699510230058</v>
       </c>
       <c r="F7">
         <v>-0.6111470122765575</v>
@@ -1620,16 +1620,16 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.3408425177552815</v>
+        <v>0.3428698371760516</v>
       </c>
       <c r="C8">
-        <v>0.3324199431419893</v>
+        <v>0.3218057861008131</v>
       </c>
       <c r="D8">
-        <v>0.3328640099188345</v>
+        <v>0.3591657516751623</v>
       </c>
       <c r="E8">
-        <v>0.3402145547587219</v>
+        <v>0.3883871287086639</v>
       </c>
       <c r="F8">
         <v>0.3567403863012257</v>
@@ -1775,16 +1775,16 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.1381923030397904</v>
+        <v>0.150577361851011</v>
       </c>
       <c r="C9">
-        <v>0.1338160031940892</v>
+        <v>0.1315112418905341</v>
       </c>
       <c r="D9">
-        <v>0.1373368167587703</v>
+        <v>0.1733809481117137</v>
       </c>
       <c r="E9">
-        <v>0.1418398517016328</v>
+        <v>0.195932329341083</v>
       </c>
       <c r="F9">
         <v>0.1670450628968033</v>
@@ -1930,16 +1930,16 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.007677478012254423</v>
+        <v>0.03231494689660748</v>
       </c>
       <c r="C10">
-        <v>0.005213836972667472</v>
+        <v>0.02383896705045115</v>
       </c>
       <c r="D10">
-        <v>0.008847748995675432</v>
+        <v>0.04427671552663192</v>
       </c>
       <c r="E10">
-        <v>0.009888111324565008</v>
+        <v>0.06446036188204829</v>
       </c>
       <c r="F10">
         <v>0.03780526773321318</v>
@@ -2085,16 +2085,16 @@
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.3104871033865753</v>
+        <v>-0.26530304908987</v>
       </c>
       <c r="C11">
-        <v>-0.3050385862440413</v>
+        <v>-0.2786858524238249</v>
       </c>
       <c r="D11">
-        <v>-0.2985827864223112</v>
+        <v>-0.2855715323529845</v>
       </c>
       <c r="E11">
-        <v>-0.3008217972449592</v>
+        <v>-0.2910521403087194</v>
       </c>
       <c r="F11">
         <v>-0.2949814168407611</v>
@@ -2240,16 +2240,16 @@
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.2343877475953378</v>
+        <v>0.2534356823599774</v>
       </c>
       <c r="C12">
-        <v>0.234346836980334</v>
+        <v>0.2365809886853678</v>
       </c>
       <c r="D12">
-        <v>0.2340404490763766</v>
+        <v>0.2398372590674687</v>
       </c>
       <c r="E12">
-        <v>0.2417175968215702</v>
+        <v>0.2695460277976194</v>
       </c>
       <c r="F12">
         <v>0.2354685507879166</v>
@@ -2395,16 +2395,16 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>-0.0355811434028571</v>
+        <v>-0.01432464935169101</v>
       </c>
       <c r="C13">
-        <v>-0.03142802718961497</v>
+        <v>-0.01964464823242858</v>
       </c>
       <c r="D13">
-        <v>-0.02558792855566451</v>
+        <v>-0.0261421730794172</v>
       </c>
       <c r="E13">
-        <v>-0.02346881763803903</v>
+        <v>-0.01458882768456649</v>
       </c>
       <c r="F13">
         <v>-0.03360827539041554</v>
@@ -2550,16 +2550,16 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.119766949534001</v>
+        <v>-1.052363397037176</v>
       </c>
       <c r="C14">
-        <v>-1.070476779332354</v>
+        <v>-1.038009785325625</v>
       </c>
       <c r="D14">
-        <v>-1.079139213743662</v>
+        <v>-1.061921079318582</v>
       </c>
       <c r="E14">
-        <v>-1.065329029644668</v>
+        <v>-1.151753713750566</v>
       </c>
       <c r="F14">
         <v>-1.067196952411348</v>
@@ -2705,16 +2705,16 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.02653928606232004</v>
+        <v>0.05354227550665881</v>
       </c>
       <c r="C15">
-        <v>0.02785031071919188</v>
+        <v>0.03988030211888347</v>
       </c>
       <c r="D15">
-        <v>0.03013706324480984</v>
+        <v>0.0414554029917353</v>
       </c>
       <c r="E15">
-        <v>0.03333105317289178</v>
+        <v>0.06229732471053284</v>
       </c>
       <c r="F15">
         <v>0.03430803915407166</v>
@@ -2860,16 +2860,16 @@
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.4468171351209366</v>
+        <v>0.4222118718277207</v>
       </c>
       <c r="C16">
-        <v>0.4483295385459573</v>
+        <v>0.4075869811233951</v>
       </c>
       <c r="D16">
-        <v>0.4489000287006263</v>
+        <v>0.4298991726430861</v>
       </c>
       <c r="E16">
-        <v>0.4467013115474705</v>
+        <v>0.4544731507511248</v>
       </c>
       <c r="F16">
         <v>0.418666816867543</v>
@@ -3015,16 +3015,16 @@
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.351037216200538</v>
+        <v>0.3464013077401258</v>
       </c>
       <c r="C17">
-        <v>0.3542467437648958</v>
+        <v>0.3532419915119398</v>
       </c>
       <c r="D17">
-        <v>0.355442539393886</v>
+        <v>0.3243796745332886</v>
       </c>
       <c r="E17">
-        <v>0.3554808635221984</v>
+        <v>0.37230138210893</v>
       </c>
       <c r="F17">
         <v>0.3100602235141564</v>
@@ -3170,16 +3170,16 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.5657577414528878</v>
+        <v>-0.4914178749555396</v>
       </c>
       <c r="C18">
-        <v>-0.5614390003313355</v>
+        <v>-0.4526660407466209</v>
       </c>
       <c r="D18">
-        <v>-0.5536721440784207</v>
+        <v>-0.5543503885930156</v>
       </c>
       <c r="E18">
-        <v>-0.5293701317095332</v>
+        <v>-0.4931415664527452</v>
       </c>
       <c r="F18">
         <v>-0.5744214660913449</v>
@@ -3325,16 +3325,16 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.108597775833828</v>
+        <v>-0.08485145486449609</v>
       </c>
       <c r="C19">
-        <v>-0.1080722794058108</v>
+        <v>-0.04566146959427327</v>
       </c>
       <c r="D19">
-        <v>-0.104599050960467</v>
+        <v>-0.1000601251233893</v>
       </c>
       <c r="E19">
-        <v>-0.09062134285587217</v>
+        <v>-0.05186830710391099</v>
       </c>
       <c r="F19">
         <v>-0.1131204979568442</v>
@@ -3480,16 +3480,16 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.2188647994040933</v>
+        <v>-0.18322819222721</v>
       </c>
       <c r="C20">
-        <v>-0.2176978129328851</v>
+        <v>-0.1860584482122806</v>
       </c>
       <c r="D20">
-        <v>-0.2137145766255175</v>
+        <v>-0.2040327436475027</v>
       </c>
       <c r="E20">
-        <v>-0.2246243854003885</v>
+        <v>-0.1943424451447728</v>
       </c>
       <c r="F20">
         <v>-0.2151629870846332</v>
@@ -3635,16 +3635,16 @@
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.404318324609115</v>
+        <v>-1.324339135784553</v>
       </c>
       <c r="C21">
-        <v>-1.368975057014672</v>
+        <v>-1.314686070583072</v>
       </c>
       <c r="D21">
-        <v>-1.386195409115714</v>
+        <v>-1.313236761179311</v>
       </c>
       <c r="E21">
-        <v>-1.364519435821347</v>
+        <v>-1.403407144252971</v>
       </c>
       <c r="F21">
         <v>-1.308823354756866</v>
@@ -3790,16 +3790,16 @@
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.900745097422061</v>
+        <v>-1.807618661455657</v>
       </c>
       <c r="C22">
-        <v>-1.839068516823445</v>
+        <v>-1.783806034129407</v>
       </c>
       <c r="D22">
-        <v>-1.845709454262265</v>
+        <v>-1.775003729951448</v>
       </c>
       <c r="E22">
-        <v>-1.833005727387039</v>
+        <v>-1.790519717630033</v>
       </c>
       <c r="F22">
         <v>-1.772612533757518</v>
@@ -3945,16 +3945,16 @@
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.321294935224445</v>
+        <v>-2.133376975606827</v>
       </c>
       <c r="C23">
-        <v>-2.203939757171586</v>
+        <v>-2.120414454072522</v>
       </c>
       <c r="D23">
-        <v>-2.215630803852436</v>
+        <v>-2.102889640776883</v>
       </c>
       <c r="E23">
-        <v>-2.194983317207947</v>
+        <v>-2.150007363668515</v>
       </c>
       <c r="F23">
         <v>-2.089558776342832</v>
@@ -4100,16 +4100,16 @@
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.390715969638902</v>
+        <v>-1.317009613318864</v>
       </c>
       <c r="C24">
-        <v>-1.329930196802721</v>
+        <v>-1.259988797052227</v>
       </c>
       <c r="D24">
-        <v>-1.306815464013255</v>
+        <v>-1.256572821584732</v>
       </c>
       <c r="E24">
-        <v>-1.323001078294148</v>
+        <v>-1.270290290280021</v>
       </c>
       <c r="F24">
         <v>-1.267891659890879</v>
@@ -4255,16 +4255,16 @@
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-2.039205265664228</v>
+        <v>-1.852249064161419</v>
       </c>
       <c r="C25">
-        <v>-1.883848003300183</v>
+        <v>-1.808587135097232</v>
       </c>
       <c r="D25">
-        <v>-1.912348185011773</v>
+        <v>-1.836713859822773</v>
       </c>
       <c r="E25">
-        <v>-1.876061382133261</v>
+        <v>-1.857985182876122</v>
       </c>
       <c r="F25">
         <v>-1.837259350839245</v>
@@ -4410,16 +4410,16 @@
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.556784271472037</v>
+        <v>-1.481375915517199</v>
       </c>
       <c r="C26">
-        <v>-1.509913132932498</v>
+        <v>-1.428746543986956</v>
       </c>
       <c r="D26">
-        <v>-1.486008836909542</v>
+        <v>-1.413049054548406</v>
       </c>
       <c r="E26">
-        <v>-1.503062258512752</v>
+        <v>-1.408523784463953</v>
       </c>
       <c r="F26">
         <v>-1.420301771066505</v>
@@ -4565,16 +4565,16 @@
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.797696250990785</v>
+        <v>-1.709211549558214</v>
       </c>
       <c r="C27">
-        <v>-1.695207465812814</v>
+        <v>-1.653703155753603</v>
       </c>
       <c r="D27">
-        <v>-1.699924411612714</v>
+        <v>-1.683396946152255</v>
       </c>
       <c r="E27">
-        <v>-1.689370131923071</v>
+        <v>-1.634576566504747</v>
       </c>
       <c r="F27">
         <v>-1.696044997507178</v>
@@ -4720,16 +4720,16 @@
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.37932307558546</v>
+        <v>-1.334876323041389</v>
       </c>
       <c r="C28">
-        <v>-1.28430790640936</v>
+        <v>-1.274085507140702</v>
       </c>
       <c r="D28">
-        <v>-1.28663015464456</v>
+        <v>-1.321239515752925</v>
       </c>
       <c r="E28">
-        <v>-1.278931240311403</v>
+        <v>-1.356346723720293</v>
       </c>
       <c r="F28">
         <v>-1.33781983359949</v>
@@ -4875,16 +4875,16 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>-0.03524837017137735</v>
+        <v>-0.001956287617051383</v>
       </c>
       <c r="C29">
-        <v>-0.03090776185833002</v>
+        <v>-0.01857398444172559</v>
       </c>
       <c r="D29">
-        <v>-0.02605033755505524</v>
+        <v>-0.02247122874080358</v>
       </c>
       <c r="E29">
-        <v>-0.02699322353482644</v>
+        <v>-0.01040667368981452</v>
       </c>
       <c r="F29">
         <v>-0.02854885943379214</v>
@@ -5030,16 +5030,16 @@
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.5026743477019505</v>
+        <v>0.5076457189143245</v>
       </c>
       <c r="C30">
-        <v>0.5027414571015465</v>
+        <v>0.4659871501912718</v>
       </c>
       <c r="D30">
-        <v>0.4993770459819802</v>
+        <v>0.503123217049071</v>
       </c>
       <c r="E30">
-        <v>0.4810449189645757</v>
+        <v>0.4868151038618219</v>
       </c>
       <c r="F30">
         <v>0.5024358226460371</v>
@@ -5185,16 +5185,16 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.2005220005568338</v>
+        <v>0.2321271228330206</v>
       </c>
       <c r="C31">
-        <v>0.2058304951335918</v>
+        <v>0.2127872649582291</v>
       </c>
       <c r="D31">
-        <v>0.2083525769822313</v>
+        <v>0.2064197273013706</v>
       </c>
       <c r="E31">
-        <v>0.2150620300230303</v>
+        <v>0.2250446999241397</v>
       </c>
       <c r="F31">
         <v>0.2024901569354845</v>
@@ -5340,16 +5340,16 @@
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1784637038648235</v>
+        <v>-0.1275873774518276</v>
       </c>
       <c r="C32">
-        <v>-0.1587978414920555</v>
+        <v>-0.1418156572154635</v>
       </c>
       <c r="D32">
-        <v>-0.1637173996277742</v>
+        <v>-0.1854834717051429</v>
       </c>
       <c r="E32">
-        <v>-0.1547484869043652</v>
+        <v>-0.1897464205674331</v>
       </c>
       <c r="F32">
         <v>-0.1934711921435909</v>
@@ -5495,16 +5495,16 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.27261725378987</v>
+        <v>0.2871972592153669</v>
       </c>
       <c r="C33">
-        <v>0.2715076122161872</v>
+        <v>0.2806098607686495</v>
       </c>
       <c r="D33">
-        <v>0.2711404452618162</v>
+        <v>0.2776178005977522</v>
       </c>
       <c r="E33">
-        <v>0.2906668453621762</v>
+        <v>0.3136354344089693</v>
       </c>
       <c r="F33">
         <v>0.2736474624702836</v>
@@ -5650,16 +5650,16 @@
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.1972686729796981</v>
+        <v>0.2096593200421611</v>
       </c>
       <c r="C34">
-        <v>0.1956072025005595</v>
+        <v>0.1754739950005044</v>
       </c>
       <c r="D34">
-        <v>0.1962863203344126</v>
+        <v>0.201865167109157</v>
       </c>
       <c r="E34">
-        <v>0.1766160505866803</v>
+        <v>0.2090847298148775</v>
       </c>
       <c r="F34">
         <v>0.1951526592116961</v>
@@ -5805,16 +5805,16 @@
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.5745721146120116</v>
+        <v>-0.5301961637137017</v>
       </c>
       <c r="C35">
-        <v>-0.574834066882656</v>
+        <v>-0.5406182150925124</v>
       </c>
       <c r="D35">
-        <v>-0.5650352606543012</v>
+        <v>-0.5569413316569353</v>
       </c>
       <c r="E35">
-        <v>-0.5786813660231336</v>
+        <v>-0.5749270251045555</v>
       </c>
       <c r="F35">
         <v>-0.5698299897740831</v>
@@ -5960,16 +5960,16 @@
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.298956687886289</v>
+        <v>-1.226615148691856</v>
       </c>
       <c r="C36">
-        <v>-1.269787099422794</v>
+        <v>-1.227752832906257</v>
       </c>
       <c r="D36">
-        <v>-1.281883725299461</v>
+        <v>-1.236903299863321</v>
       </c>
       <c r="E36">
-        <v>-1.264980836877869</v>
+        <v>-1.348330688507578</v>
       </c>
       <c r="F36">
         <v>-1.237160052624941</v>
@@ -6115,16 +6115,16 @@
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.153203327764828</v>
+        <v>-1.059745507702398</v>
       </c>
       <c r="C37">
-        <v>-1.11231994226033</v>
+        <v>-1.066130686442524</v>
       </c>
       <c r="D37">
-        <v>-1.138809490175258</v>
+        <v>-1.095968093919958</v>
       </c>
       <c r="E37">
-        <v>-1.10936784832182</v>
+        <v>-1.18374711900575</v>
       </c>
       <c r="F37">
         <v>-1.0987649651094</v>
@@ -6270,16 +6270,16 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8941614587596826</v>
+        <v>-0.8699740760532245</v>
       </c>
       <c r="C38">
-        <v>-0.9142414575313585</v>
+        <v>-0.8705563099528906</v>
       </c>
       <c r="D38">
-        <v>-0.8874989087840741</v>
+        <v>-0.860346136425303</v>
       </c>
       <c r="E38">
-        <v>-0.9114011738241632</v>
+        <v>-0.9105089769594576</v>
       </c>
       <c r="F38">
         <v>-0.869392024379341</v>
@@ -6425,16 +6425,16 @@
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.5353870663421308</v>
+        <v>-0.5120802767982944</v>
       </c>
       <c r="C39">
-        <v>-0.5380727393237887</v>
+        <v>-0.5081444170110142</v>
       </c>
       <c r="D39">
-        <v>-0.5249080815601459</v>
+        <v>-0.5216266990556201</v>
       </c>
       <c r="E39">
-        <v>-0.5378811280443857</v>
+        <v>-0.5242906592368053</v>
       </c>
       <c r="F39">
         <v>-0.5339936790041844</v>
@@ -6580,16 +6580,16 @@
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3854400698791187</v>
+        <v>-0.3664503662743569</v>
       </c>
       <c r="C40">
-        <v>-0.3700589582307895</v>
+        <v>-0.3607414010910107</v>
       </c>
       <c r="D40">
-        <v>-0.3712614658220211</v>
+        <v>-0.3867702709377778</v>
       </c>
       <c r="E40">
-        <v>-0.3693849303649934</v>
+        <v>-0.3841539025858443</v>
       </c>
       <c r="F40">
         <v>-0.3970480044535269</v>
@@ -6735,16 +6735,16 @@
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.1063890934548831</v>
+        <v>-0.07407772338029074</v>
       </c>
       <c r="C41">
-        <v>-0.09283723117036624</v>
+        <v>-0.07789408044493266</v>
       </c>
       <c r="D41">
-        <v>-0.09780697985416544</v>
+        <v>-0.1025960694388425</v>
       </c>
       <c r="E41">
-        <v>-0.09112755953281325</v>
+        <v>-0.08857416268546481</v>
       </c>
       <c r="F41">
         <v>-0.1098540362275914</v>
@@ -6890,16 +6890,16 @@
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1617841893258203</v>
+        <v>-0.1725492279726458</v>
       </c>
       <c r="C42">
-        <v>-0.1453729897079927</v>
+        <v>-0.1294178897408526</v>
       </c>
       <c r="D42">
-        <v>-0.1503181326232911</v>
+        <v>-0.1569821571657366</v>
       </c>
       <c r="E42">
-        <v>-0.1432976954884486</v>
+        <v>-0.1450812901221217</v>
       </c>
       <c r="F42">
         <v>-0.1650462184867723</v>
@@ -7045,16 +7045,16 @@
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.49847772394996</v>
+        <v>0.4633880069449917</v>
       </c>
       <c r="C43">
-        <v>0.4734473724129952</v>
+        <v>0.4529460137417768</v>
       </c>
       <c r="D43">
-        <v>0.4739164596017003</v>
+        <v>0.4948822389059608</v>
       </c>
       <c r="E43">
-        <v>0.4690937878601071</v>
+        <v>0.51925106649857</v>
       </c>
       <c r="F43">
         <v>0.4925540957855717</v>
@@ -7200,16 +7200,16 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.683175838794075</v>
+        <v>1.525994028516921</v>
       </c>
       <c r="C44">
-        <v>1.64046692270787</v>
+        <v>1.509864375982757</v>
       </c>
       <c r="D44">
-        <v>1.635374246168091</v>
+        <v>1.612938751714498</v>
       </c>
       <c r="E44">
-        <v>1.634392957715238</v>
+        <v>1.452681723032192</v>
       </c>
       <c r="F44">
         <v>1.626435409186023</v>
@@ -7355,16 +7355,16 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.502487286247639</v>
+        <v>1.340107807604248</v>
       </c>
       <c r="C45">
-        <v>1.472482811468703</v>
+        <v>1.332832867659905</v>
       </c>
       <c r="D45">
-        <v>1.469147342425515</v>
+        <v>1.442642020590681</v>
       </c>
       <c r="E45">
-        <v>1.466855305577084</v>
+        <v>1.304492245882901</v>
       </c>
       <c r="F45">
         <v>1.446367532523823</v>
@@ -7510,16 +7510,16 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.850380414739075</v>
+        <v>1.701624138363786</v>
       </c>
       <c r="C46">
-        <v>1.81844872807079</v>
+        <v>1.685116801238991</v>
       </c>
       <c r="D46">
-        <v>1.812930417986572</v>
+        <v>1.77704212864313</v>
       </c>
       <c r="E46">
-        <v>1.811577169685804</v>
+        <v>1.51145488706592</v>
       </c>
       <c r="F46">
         <v>1.787995839925115</v>
@@ -7665,16 +7665,16 @@
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.715933455430662</v>
+        <v>1.573601449767791</v>
       </c>
       <c r="C47">
-        <v>1.688681352082152</v>
+        <v>1.56371722460048</v>
       </c>
       <c r="D47">
-        <v>1.682766862026377</v>
+        <v>1.655635148506245</v>
       </c>
       <c r="E47">
-        <v>1.682255045047563</v>
+        <v>1.473198507517669</v>
       </c>
       <c r="F47">
         <v>1.668469312931859</v>
@@ -7820,16 +7820,16 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.5529185236557</v>
+        <v>1.449715787679029</v>
       </c>
       <c r="C48">
-        <v>1.579536720170203</v>
+        <v>1.467673257111363</v>
       </c>
       <c r="D48">
-        <v>1.573961290577164</v>
+        <v>1.471521533813291</v>
       </c>
       <c r="E48">
-        <v>1.574477694124629</v>
+        <v>1.392331421475521</v>
       </c>
       <c r="F48">
         <v>1.470090047213187</v>
@@ -7975,16 +7975,16 @@
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.281044600607205</v>
+        <v>1.183395023082051</v>
       </c>
       <c r="C49">
-        <v>1.311477981584423</v>
+        <v>1.212580768325414</v>
       </c>
       <c r="D49">
-        <v>1.307564761308293</v>
+        <v>1.214936854202634</v>
       </c>
       <c r="E49">
-        <v>1.307635810096122</v>
+        <v>1.204972166768749</v>
       </c>
       <c r="F49">
         <v>1.205763672760585</v>
@@ -8130,16 +8130,16 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.01779661263152566</v>
+        <v>0.05336242246148235</v>
       </c>
       <c r="C50">
-        <v>0.03129714628337812</v>
+        <v>0.05818496189788167</v>
       </c>
       <c r="D50">
-        <v>0.03399000573464565</v>
+        <v>-0.001244714952487805</v>
       </c>
       <c r="E50">
-        <v>0.03504981558747059</v>
+        <v>0.04389983839212863</v>
       </c>
       <c r="F50">
         <v>-0.02023395067461796</v>
@@ -8285,16 +8285,16 @@
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.5428813352940088</v>
+        <v>-0.4800950167685546</v>
       </c>
       <c r="C51">
-        <v>-0.5472606151972033</v>
+        <v>-0.4863198269838129</v>
       </c>
       <c r="D51">
-        <v>-0.5412520962855127</v>
+        <v>-0.5354441446445887</v>
       </c>
       <c r="E51">
-        <v>-0.5378731985681329</v>
+        <v>-0.5040151256813696</v>
       </c>
       <c r="F51">
         <v>-0.549247105346788</v>
@@ -8440,16 +8440,16 @@
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.35265330890559</v>
+        <v>-1.292429616391446</v>
       </c>
       <c r="C52">
-        <v>-1.364047901508707</v>
+        <v>-1.331188033979321</v>
       </c>
       <c r="D52">
-        <v>-1.37802063269476</v>
+        <v>-1.275697251000429</v>
       </c>
       <c r="E52">
-        <v>-1.38911284015358</v>
+        <v>-1.286747106013975</v>
       </c>
       <c r="F52">
         <v>-1.268513687184797</v>
@@ -8595,16 +8595,16 @@
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.8763316967842254</v>
+        <v>-0.831149422466838</v>
       </c>
       <c r="C53">
-        <v>-0.8976120810102971</v>
+        <v>-0.8208566341240088</v>
       </c>
       <c r="D53">
-        <v>-0.8863714930182913</v>
+        <v>-0.8562384859375952</v>
       </c>
       <c r="E53">
-        <v>-0.8768408662101117</v>
+        <v>-0.7941336441578697</v>
       </c>
       <c r="F53">
         <v>-0.8675118122760416</v>
@@ -8750,16 +8750,16 @@
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.3201348450942332</v>
+        <v>0.3366005791219492</v>
       </c>
       <c r="C54">
-        <v>0.3439006894933208</v>
+        <v>0.3515354140482656</v>
       </c>
       <c r="D54">
-        <v>0.3449815870471064</v>
+        <v>0.2832928568277096</v>
       </c>
       <c r="E54">
-        <v>0.3455777935798249</v>
+        <v>0.3476685884939441</v>
       </c>
       <c r="F54">
         <v>0.2625767023699513</v>
@@ -8905,16 +8905,16 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.8040553491358504</v>
+        <v>0.758185669554287</v>
       </c>
       <c r="C55">
-        <v>0.8144513941495989</v>
+        <v>0.7688664656075963</v>
       </c>
       <c r="D55">
-        <v>0.8109397447177689</v>
+        <v>0.7829222043458446</v>
       </c>
       <c r="E55">
-        <v>0.8119768781405127</v>
+        <v>0.803399129070056</v>
       </c>
       <c r="F55">
         <v>0.7784713509745727</v>
@@ -9060,16 +9060,16 @@
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.38345261991347</v>
+        <v>1.305520319967228</v>
       </c>
       <c r="C56">
-        <v>1.407841406323837</v>
+        <v>1.329214013710878</v>
       </c>
       <c r="D56">
-        <v>1.40076154517567</v>
+        <v>1.358882783199724</v>
       </c>
       <c r="E56">
-        <v>1.402685783318641</v>
+        <v>1.306449897029873</v>
       </c>
       <c r="F56">
         <v>1.365605306844551</v>
@@ -9215,16 +9215,16 @@
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.578682968802023</v>
+        <v>1.474935090908547</v>
       </c>
       <c r="C57">
-        <v>1.590731014469547</v>
+        <v>1.487161930297882</v>
       </c>
       <c r="D57">
-        <v>1.583727934625345</v>
+        <v>1.54344332786412</v>
       </c>
       <c r="E57">
-        <v>1.584587096368002</v>
+        <v>1.427628705617951</v>
       </c>
       <c r="F57">
         <v>1.551595260129448</v>
@@ -9370,16 +9370,16 @@
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.452812274036275</v>
+        <v>1.32696233201126</v>
       </c>
       <c r="C58">
-        <v>1.460582593954788</v>
+        <v>1.342477215000201</v>
       </c>
       <c r="D58">
-        <v>1.455954187906413</v>
+        <v>1.388755588378999</v>
       </c>
       <c r="E58">
-        <v>1.45574089791255</v>
+        <v>1.298250277463529</v>
       </c>
       <c r="F58">
         <v>1.387076712146112</v>
@@ -9525,16 +9525,16 @@
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.163598803061018</v>
+        <v>1.071733784645354</v>
       </c>
       <c r="C59">
-        <v>1.177791155736232</v>
+        <v>1.092716173769287</v>
       </c>
       <c r="D59">
-        <v>1.173653637810534</v>
+        <v>1.120364773840077</v>
       </c>
       <c r="E59">
-        <v>1.174051503568547</v>
+        <v>1.102991793808485</v>
       </c>
       <c r="F59">
         <v>1.116522832379842</v>
@@ -9680,16 +9680,16 @@
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.084771756776487</v>
+        <v>1.01151239779017</v>
       </c>
       <c r="C60">
-        <v>1.081848151634124</v>
+        <v>1.017452845405673</v>
       </c>
       <c r="D60">
-        <v>1.076999084209567</v>
+        <v>1.065716406156928</v>
       </c>
       <c r="E60">
-        <v>1.077307446413876</v>
+        <v>1.065591201407611</v>
       </c>
       <c r="F60">
         <v>1.068979524217749</v>
@@ -9835,16 +9835,16 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.8398486249670277</v>
+        <v>0.7867480527228243</v>
       </c>
       <c r="C61">
-        <v>0.8517533570540545</v>
+        <v>0.7956254466223421</v>
       </c>
       <c r="D61">
-        <v>0.848909758557814</v>
+        <v>0.8183497143081925</v>
       </c>
       <c r="E61">
-        <v>0.8486614766779007</v>
+        <v>0.8524370524078809</v>
       </c>
       <c r="F61">
         <v>0.8114593884626229</v>
@@ -9990,16 +9990,16 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.1248195510318971</v>
+        <v>0.1400508957079477</v>
       </c>
       <c r="C62">
-        <v>0.127429388660608</v>
+        <v>0.1587884094071269</v>
       </c>
       <c r="D62">
-        <v>0.1308620557747288</v>
+        <v>0.1345827414883917</v>
       </c>
       <c r="E62">
-        <v>0.1819883746440157</v>
+        <v>0.2345103232155336</v>
       </c>
       <c r="F62">
         <v>0.1225611554559409</v>
@@ -10145,16 +10145,16 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.111474871306032</v>
+        <v>-0.07425207185997959</v>
       </c>
       <c r="C63">
-        <v>-0.1115848816602336</v>
+        <v>-0.09156282853419599</v>
       </c>
       <c r="D63">
-        <v>-0.1072375155088801</v>
+        <v>-0.09665625716173218</v>
       </c>
       <c r="E63">
-        <v>-0.1026769396160843</v>
+        <v>-0.07642951099750506</v>
       </c>
       <c r="F63">
         <v>-0.1075824210155605</v>
@@ -10300,16 +10300,16 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.6084913666119</v>
+        <v>1.422467975400186</v>
       </c>
       <c r="C64">
-        <v>1.557505215021471</v>
+        <v>1.404813614777453</v>
       </c>
       <c r="D64">
-        <v>1.554508982670499</v>
+        <v>1.53650347007657</v>
       </c>
       <c r="E64">
-        <v>1.551687869533129</v>
+        <v>1.360020501650607</v>
       </c>
       <c r="F64">
         <v>1.54410358607715</v>
@@ -10455,16 +10455,16 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.751700604444799</v>
+        <v>1.552219296030237</v>
       </c>
       <c r="C65">
-        <v>1.681154580895194</v>
+        <v>1.52361426470297</v>
       </c>
       <c r="D65">
-        <v>1.678418604589716</v>
+        <v>1.685442933247991</v>
       </c>
       <c r="E65">
-        <v>1.674113148831111</v>
+        <v>1.401849796491204</v>
       </c>
       <c r="F65">
         <v>1.697984411888679</v>
@@ -10610,16 +10610,16 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>1.908519305095802</v>
+        <v>1.736068593588168</v>
       </c>
       <c r="C66">
-        <v>1.846109327967357</v>
+        <v>1.716132908984104</v>
       </c>
       <c r="D66">
-        <v>1.843593938223143</v>
+        <v>1.855855402831988</v>
       </c>
       <c r="E66">
-        <v>1.836569996987312</v>
+        <v>1.448465773836712</v>
       </c>
       <c r="F66">
         <v>1.866117825416384</v>
@@ -10765,16 +10765,16 @@
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.742743356963023</v>
+        <v>1.567617115996686</v>
       </c>
       <c r="C67">
-        <v>1.680380643852697</v>
+        <v>1.538444078306474</v>
       </c>
       <c r="D67">
-        <v>1.676768869643179</v>
+        <v>1.706534463224978</v>
       </c>
       <c r="E67">
-        <v>1.671288441843816</v>
+        <v>1.405532525131037</v>
       </c>
       <c r="F67">
         <v>1.722023877899584</v>
@@ -10920,16 +10920,16 @@
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.551013100538307</v>
+        <v>1.392718732490486</v>
       </c>
       <c r="C68">
-        <v>1.49849791358243</v>
+        <v>1.362178961909011</v>
       </c>
       <c r="D68">
-        <v>1.494558056002128</v>
+        <v>1.531531241910949</v>
       </c>
       <c r="E68">
-        <v>1.488647752560766</v>
+        <v>1.331611046368987</v>
       </c>
       <c r="F68">
         <v>1.546348077610398</v>
@@ -11075,16 +11075,16 @@
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.749180513578037</v>
+        <v>1.582568074650836</v>
       </c>
       <c r="C69">
-        <v>1.673861847127608</v>
+        <v>1.539087575135133</v>
       </c>
       <c r="D69">
-        <v>1.668335369880515</v>
+        <v>1.736472096553736</v>
       </c>
       <c r="E69">
-        <v>1.660669680668243</v>
+        <v>1.515855388865446</v>
       </c>
       <c r="F69">
         <v>1.762081514144689</v>
@@ -11230,16 +11230,16 @@
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.2788649535580096</v>
+        <v>0.3036485900111497</v>
       </c>
       <c r="C70">
-        <v>0.2810493933729994</v>
+        <v>0.2833263310016951</v>
       </c>
       <c r="D70">
-        <v>0.280067742349542</v>
+        <v>0.2810317551497476</v>
       </c>
       <c r="E70">
-        <v>0.2891191144327514</v>
+        <v>0.3062139614481156</v>
       </c>
       <c r="F70">
         <v>0.277651992692765</v>
@@ -11385,16 +11385,16 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.6207067051050578</v>
+        <v>0.6108017851972777</v>
       </c>
       <c r="C71">
-        <v>0.6162814304963407</v>
+        <v>0.4791178036879382</v>
       </c>
       <c r="D71">
-        <v>0.6143038069558349</v>
+        <v>0.6250363308552878</v>
       </c>
       <c r="E71">
-        <v>0.5187767450776457</v>
+        <v>0.550761625126855</v>
       </c>
       <c r="F71">
         <v>0.6207319881611565</v>
@@ -11540,16 +11540,16 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.2792642873541395</v>
+        <v>0.2835804072989799</v>
       </c>
       <c r="C72">
-        <v>0.2883489116184839</v>
+        <v>0.2894947000505103</v>
       </c>
       <c r="D72">
-        <v>0.2905507813149673</v>
+        <v>0.2587020322796939</v>
       </c>
       <c r="E72">
-        <v>0.2900998279512733</v>
+        <v>0.313482749568518</v>
       </c>
       <c r="F72">
         <v>0.241256805729008</v>
@@ -11695,16 +11695,16 @@
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.3013441834243213</v>
+        <v>0.2930596565673489</v>
       </c>
       <c r="C73">
-        <v>0.3082773534336277</v>
+        <v>0.2978847584770374</v>
       </c>
       <c r="D73">
-        <v>0.3113553980501622</v>
+        <v>0.2806340655544111</v>
       </c>
       <c r="E73">
-        <v>0.3097890204026732</v>
+        <v>0.3353605960369135</v>
       </c>
       <c r="F73">
         <v>0.2616530542697036</v>
@@ -11850,16 +11850,16 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.4822163636771883</v>
+        <v>0.4517693266774704</v>
       </c>
       <c r="C74">
-        <v>0.4971805072024235</v>
+        <v>0.4719813649910691</v>
       </c>
       <c r="D74">
-        <v>0.4993993988369896</v>
+        <v>0.4379922116885234</v>
       </c>
       <c r="E74">
-        <v>0.498135126659861</v>
+        <v>0.5049491331456599</v>
       </c>
       <c r="F74">
         <v>0.415603710392021</v>
@@ -12005,16 +12005,16 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.1771470790210564</v>
+        <v>0.2002028276718891</v>
       </c>
       <c r="C75">
-        <v>0.1953383392838884</v>
+        <v>0.2030777567470637</v>
       </c>
       <c r="D75">
-        <v>0.2000186080273054</v>
+        <v>0.1199026124942712</v>
       </c>
       <c r="E75">
-        <v>0.1989691318407246</v>
+        <v>0.1872947029096862</v>
       </c>
       <c r="F75">
         <v>0.08845420792288533</v>
@@ -12160,16 +12160,16 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.4133027447579537</v>
+        <v>0.4730130150466736</v>
       </c>
       <c r="C76">
-        <v>0.462374390662795</v>
+        <v>0.4375172838116071</v>
       </c>
       <c r="D76">
-        <v>0.4654639299149482</v>
+        <v>0.317401517429398</v>
       </c>
       <c r="E76">
-        <v>0.4644442096294352</v>
+        <v>0.4130099693982734</v>
       </c>
       <c r="F76">
         <v>0.276213789809463</v>
@@ -12315,16 +12315,16 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.2511350215946108</v>
+        <v>-0.1928995180525944</v>
       </c>
       <c r="C77">
-        <v>-0.2466596344217013</v>
+        <v>-0.1947118828470915</v>
       </c>
       <c r="D77">
-        <v>-0.241980272175725</v>
+        <v>-0.2665201070357794</v>
       </c>
       <c r="E77">
-        <v>-0.2403282342907623</v>
+        <v>-0.237799885073344</v>
       </c>
       <c r="F77">
         <v>-0.285827051177105</v>
@@ -12470,16 +12470,16 @@
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.3318887018013126</v>
+        <v>-0.29064817205467</v>
       </c>
       <c r="C78">
-        <v>-0.3376042672277345</v>
+        <v>-0.2905375886180829</v>
       </c>
       <c r="D78">
-        <v>-0.3305691517766421</v>
+        <v>-0.3252498401419516</v>
       </c>
       <c r="E78">
-        <v>-0.3160759629056782</v>
+        <v>-0.3274812339647559</v>
       </c>
       <c r="F78">
         <v>-0.3363472322125024</v>
@@ -12625,16 +12625,16 @@
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.623771177039523</v>
+        <v>0.5971301749824593</v>
       </c>
       <c r="C79">
-        <v>0.620353282025543</v>
+        <v>0.5608222104900075</v>
       </c>
       <c r="D79">
-        <v>0.6187596031212574</v>
+        <v>0.6226337627105702</v>
       </c>
       <c r="E79">
-        <v>0.604598382607282</v>
+        <v>0.6292097412033042</v>
       </c>
       <c r="F79">
         <v>0.618618326378426</v>
@@ -12780,16 +12780,16 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.7752565966538258</v>
+        <v>0.7265197857943456</v>
       </c>
       <c r="C80">
-        <v>0.7622351490274274</v>
+        <v>0.6355645215567758</v>
       </c>
       <c r="D80">
-        <v>0.7599882185376317</v>
+        <v>0.7819646270527875</v>
       </c>
       <c r="E80">
-        <v>0.6960264804473432</v>
+        <v>0.7095895089850812</v>
       </c>
       <c r="F80">
         <v>0.7821260935060428</v>
@@ -12935,16 +12935,16 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>0.8782494997606577</v>
+        <v>0.8117399194190793</v>
       </c>
       <c r="C81">
-        <v>0.8522026493227792</v>
+        <v>1.294941135477823</v>
       </c>
       <c r="D81">
-        <v>0.8588651475167615</v>
+        <v>0.8883601002968586</v>
       </c>
       <c r="E81">
-        <v>1.446545581247936</v>
+        <v>1.396051148617868</v>
       </c>
       <c r="F81">
         <v>0.8932719657836562</v>
@@ -13090,16 +13090,16 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.06400897864467936</v>
+        <v>0.1320761871530138</v>
       </c>
       <c r="C82">
-        <v>0.08087423509924882</v>
+        <v>0.07115777014962751</v>
       </c>
       <c r="D82">
-        <v>0.08418237058218739</v>
+        <v>0.1192685857963253</v>
       </c>
       <c r="E82">
-        <v>0.08717312891046862</v>
+        <v>0.114782865932513</v>
       </c>
       <c r="F82">
         <v>0.1169923302696209</v>
@@ -13245,16 +13245,16 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.8646915688424424</v>
+        <v>0.8269363472760247</v>
       </c>
       <c r="C83">
-        <v>0.8338100271677981</v>
+        <v>0.7580837594234935</v>
       </c>
       <c r="D83">
-        <v>0.8322495285264131</v>
+        <v>0.9167909668559265</v>
       </c>
       <c r="E83">
-        <v>0.8423612421131235</v>
+        <v>0.8463618755116885</v>
       </c>
       <c r="F83">
         <v>0.9294595469881071</v>
@@ -13400,16 +13400,16 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.2972294007656887</v>
+        <v>0.3592332323566326</v>
       </c>
       <c r="C84">
-        <v>0.3057285150905668</v>
+        <v>0.2744532937368688</v>
       </c>
       <c r="D84">
-        <v>0.3071330669924123</v>
+        <v>0.3841703116686783</v>
       </c>
       <c r="E84">
-        <v>0.3111961564799282</v>
+        <v>0.3652443053748279</v>
       </c>
       <c r="F84">
         <v>0.3905003289323499</v>
@@ -13555,16 +13555,16 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.8425998679051029</v>
+        <v>-0.681884964371716</v>
       </c>
       <c r="C85">
-        <v>-0.7470446643778377</v>
+        <v>-0.7148670115717761</v>
       </c>
       <c r="D85">
-        <v>-0.7320741730812279</v>
+        <v>-0.6891116509361094</v>
       </c>
       <c r="E85">
-        <v>-0.7385593089526394</v>
+        <v>-0.7447458736336912</v>
       </c>
       <c r="F85">
         <v>-0.6977562416530465</v>
@@ -13710,16 +13710,16 @@
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-1.200921243313675</v>
+        <v>-1.03853853297684</v>
       </c>
       <c r="C86">
-        <v>-1.087438245623884</v>
+        <v>-1.038257362696529</v>
       </c>
       <c r="D86">
-        <v>-1.064933756913428</v>
+        <v>-1.021992001612047</v>
       </c>
       <c r="E86">
-        <v>-1.078093439783477</v>
+        <v>-1.103900085099733</v>
       </c>
       <c r="F86">
         <v>-1.032528132923783</v>
@@ -13865,16 +13865,16 @@
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.674424788750798</v>
+        <v>-1.477016854869387</v>
       </c>
       <c r="C87">
-        <v>-1.521567389403761</v>
+        <v>-1.455177898399836</v>
       </c>
       <c r="D87">
-        <v>-1.489115691842529</v>
+        <v>-1.432638072458859</v>
       </c>
       <c r="E87">
-        <v>-1.510179572175467</v>
+        <v>-1.554359441607351</v>
       </c>
       <c r="F87">
         <v>-1.442834454304596</v>
@@ -14020,16 +14020,16 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.9829765473291642</v>
+        <v>-0.8222024768943212</v>
       </c>
       <c r="C88">
-        <v>-0.8827162820067646</v>
+        <v>-0.8406178106799694</v>
       </c>
       <c r="D88">
-        <v>-0.8677470143524026</v>
+        <v>-0.8229494570353567</v>
       </c>
       <c r="E88">
-        <v>-0.873988139982819</v>
+        <v>-0.8790060499621037</v>
       </c>
       <c r="F88">
         <v>-0.8343207606976955</v>
@@ -14175,16 +14175,16 @@
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.535690802241446</v>
+        <v>-1.878521221834643</v>
       </c>
       <c r="C89">
-        <v>-1.840725993896366</v>
+        <v>-1.829101667887308</v>
       </c>
       <c r="D89">
-        <v>-1.437323020586394</v>
+        <v>-1.416200137848114</v>
       </c>
       <c r="E89">
-        <v>-1.823766433184724</v>
+        <v>-1.529237592056451</v>
       </c>
       <c r="F89">
         <v>-1.430256755730853</v>
@@ -14330,16 +14330,16 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.3876387141023776</v>
+        <v>-0.2499011845274312</v>
       </c>
       <c r="C90">
-        <v>-0.3291408583738267</v>
+        <v>-0.3240646406010304</v>
       </c>
       <c r="D90">
-        <v>-0.3202548565819082</v>
+        <v>-0.2853507413397057</v>
       </c>
       <c r="E90">
-        <v>-0.32120569057738</v>
+        <v>-0.3133899584043296</v>
       </c>
       <c r="F90">
         <v>-0.2925182230486319</v>
@@ -14485,16 +14485,16 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>-0.09078469636515969</v>
+        <v>0.04090745214686946</v>
       </c>
       <c r="C91">
-        <v>-0.04146272989838498</v>
+        <v>-0.05018766406209924</v>
       </c>
       <c r="D91">
-        <v>-0.03562093205449589</v>
+        <v>0.005960978190904735</v>
       </c>
       <c r="E91">
-        <v>-0.03469459890869565</v>
+        <v>-0.01951157128448266</v>
       </c>
       <c r="F91">
         <v>0.003942654604280948</v>
@@ -14640,16 +14640,16 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.03892749991585494</v>
+        <v>0.1755080789880037</v>
       </c>
       <c r="C92">
-        <v>0.08233517070103108</v>
+        <v>0.06877711022455996</v>
       </c>
       <c r="D92">
-        <v>0.0867734117617268</v>
+        <v>0.1310447854741114</v>
       </c>
       <c r="E92">
-        <v>0.08848563989743259</v>
+        <v>0.1048344679462988</v>
       </c>
       <c r="F92">
         <v>0.1311516144790117</v>
@@ -14795,16 +14795,16 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.4044246351739037</v>
+        <v>0.4751923388860263</v>
       </c>
       <c r="C93">
-        <v>0.4126334060401256</v>
+        <v>0.380942308869018</v>
       </c>
       <c r="D93">
-        <v>0.4128768263014398</v>
+        <v>0.4729683333608433</v>
       </c>
       <c r="E93">
-        <v>0.4177951600559993</v>
+        <v>0.4413779277376783</v>
       </c>
       <c r="F93">
         <v>0.4789957641416591</v>
@@ -14950,16 +14950,16 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.5121941146494071</v>
+        <v>0.56531306952143</v>
       </c>
       <c r="C94">
-        <v>0.5112032476263806</v>
+        <v>0.4720004005599346</v>
       </c>
       <c r="D94">
-        <v>0.5106132655111586</v>
+        <v>0.5752169860082145</v>
       </c>
       <c r="E94">
-        <v>0.5164310461058056</v>
+        <v>0.5358093649158372</v>
       </c>
       <c r="F94">
         <v>0.5828682533070767</v>
@@ -15105,16 +15105,16 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.1660762054820727</v>
+        <v>0.2584802047294015</v>
       </c>
       <c r="C95">
-        <v>0.1928691278518824</v>
+        <v>0.1710192011147261</v>
       </c>
       <c r="D95">
-        <v>0.1954146609220016</v>
+        <v>0.2552156285356108</v>
       </c>
       <c r="E95">
-        <v>0.1986114212624298</v>
+        <v>0.2337265965717374</v>
       </c>
       <c r="F95">
         <v>0.2583217119062717</v>
@@ -15260,16 +15260,16 @@
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.6641033372152385</v>
+        <v>-0.5087049236706158</v>
       </c>
       <c r="C96">
-        <v>-0.5755359877075826</v>
+        <v>-0.5518445547531821</v>
       </c>
       <c r="D96">
-        <v>-0.5604170014640222</v>
+        <v>-0.5241071086020098</v>
       </c>
       <c r="E96">
-        <v>-0.5678249313619732</v>
+        <v>-0.5699353261516447</v>
       </c>
       <c r="F96">
         <v>-0.5309073722201535</v>
@@ -15415,16 +15415,16 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.534165956699502</v>
+        <v>-0.3796962041444349</v>
       </c>
       <c r="C97">
-        <v>-0.4591643322656546</v>
+        <v>-0.4430513670547554</v>
       </c>
       <c r="D97">
-        <v>-0.4496011277897465</v>
+        <v>-0.3993126880783036</v>
       </c>
       <c r="E97">
-        <v>-0.4514694685620211</v>
+        <v>-0.4308270805551919</v>
       </c>
       <c r="F97">
         <v>-0.405645613406699</v>
@@ -15570,16 +15570,16 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.6665543701070104</v>
+        <v>-0.5112164090316916</v>
       </c>
       <c r="C98">
-        <v>-0.5861454985527992</v>
+        <v>-0.5595755804631339</v>
       </c>
       <c r="D98">
-        <v>-0.5756250924710744</v>
+        <v>-0.5226729013869086</v>
       </c>
       <c r="E98">
-        <v>-0.5782791656133266</v>
+        <v>-0.5590484408355856</v>
       </c>
       <c r="F98">
         <v>-0.5303054636238853</v>
@@ -15725,16 +15725,16 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-1.239488644189364</v>
+        <v>-1.04940361897373</v>
       </c>
       <c r="C99">
-        <v>-1.110300095070805</v>
+        <v>-1.057428043428513</v>
       </c>
       <c r="D99">
-        <v>-1.092125829801101</v>
+        <v>-1.035407260368761</v>
       </c>
       <c r="E99">
-        <v>-1.100393539265551</v>
+        <v>-1.118018223621688</v>
       </c>
       <c r="F99">
         <v>-1.04573891712525</v>
@@ -15880,16 +15880,16 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.9375925149558373</v>
+        <v>-0.7777891185914185</v>
       </c>
       <c r="C100">
-        <v>-0.8406490104942514</v>
+        <v>-0.8004098986837505</v>
       </c>
       <c r="D100">
-        <v>-0.8265093103261474</v>
+        <v>-0.7809263231088724</v>
       </c>
       <c r="E100">
-        <v>-0.8320460369382571</v>
+        <v>-0.833372384072077</v>
       </c>
       <c r="F100">
         <v>-0.7920166223488486</v>
@@ -16035,16 +16035,16 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.7011215039245287</v>
+        <v>-0.5612190488643494</v>
       </c>
       <c r="C101">
-        <v>-0.6306351425616394</v>
+        <v>-0.6033169637132568</v>
       </c>
       <c r="D101">
-        <v>-0.6186317619130046</v>
+        <v>-0.5844088040853106</v>
       </c>
       <c r="E101">
-        <v>-0.6226568034995554</v>
+        <v>-0.6215057690254737</v>
       </c>
       <c r="F101">
         <v>-0.595199872827411</v>
@@ -16190,16 +16190,16 @@
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.239985570631934</v>
+        <v>-1.242766931677482</v>
       </c>
       <c r="C102">
-        <v>-1.271768413084174</v>
+        <v>-1.242230582638565</v>
       </c>
       <c r="D102">
-        <v>-1.126554853891846</v>
+        <v>-1.110296275347102</v>
       </c>
       <c r="E102">
-        <v>-1.260050314005158</v>
+        <v>-1.209792828049509</v>
       </c>
       <c r="F102">
         <v>-1.122454617343352</v>
@@ -16345,16 +16345,16 @@
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.885682266684806</v>
+        <v>-1.638127018494597</v>
       </c>
       <c r="C103">
-        <v>-1.674774156892712</v>
+        <v>-1.626872347622198</v>
       </c>
       <c r="D103">
-        <v>-1.686434858998813</v>
+        <v>-1.691831260211598</v>
       </c>
       <c r="E103">
-        <v>-1.664388839738639</v>
+        <v>-1.877633980562718</v>
       </c>
       <c r="F103">
         <v>-1.700150101032938</v>
@@ -16500,16 +16500,16 @@
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-2.195402894164436</v>
+        <v>-1.895298720077673</v>
       </c>
       <c r="C104">
-        <v>-1.925606944305243</v>
+        <v>-1.885755999937753</v>
       </c>
       <c r="D104">
-        <v>-1.932886565120503</v>
+        <v>-1.975236826376024</v>
       </c>
       <c r="E104">
-        <v>-1.914276097676119</v>
+        <v>-2.195716826132702</v>
       </c>
       <c r="F104">
         <v>-1.985739060257271</v>
@@ -16655,16 +16655,16 @@
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.547187161573339</v>
+        <v>-1.309940182850509</v>
       </c>
       <c r="C105">
-        <v>-1.34810036697356</v>
+        <v>-1.308362396892712</v>
       </c>
       <c r="D105">
-        <v>-1.357497454795917</v>
+        <v>-1.397115739798817</v>
       </c>
       <c r="E105">
-        <v>-1.338854742533079</v>
+        <v>-1.550731884710008</v>
       </c>
       <c r="F105">
         <v>-1.410195456960004</v>
@@ -16810,16 +16810,16 @@
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.658213931027566</v>
+        <v>-1.458181238982375</v>
       </c>
       <c r="C106">
-        <v>-1.478205435650935</v>
+        <v>-1.441938058814016</v>
       </c>
       <c r="D106">
-        <v>-1.485957120790584</v>
+        <v>-1.516164658325877</v>
       </c>
       <c r="E106">
-        <v>-1.46910511738299</v>
+        <v>-1.683367745498691</v>
       </c>
       <c r="F106">
         <v>-1.526278911893213</v>
@@ -16965,16 +16965,16 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.8545670321035832</v>
+        <v>-0.7600211468012269</v>
       </c>
       <c r="C107">
-        <v>-0.8141710378056545</v>
+        <v>-0.7875836593691723</v>
       </c>
       <c r="D107">
-        <v>-0.738861437952038</v>
+        <v>-0.7207460895555696</v>
       </c>
       <c r="E107">
-        <v>-0.8050736421774585</v>
+        <v>-0.7951050641376214</v>
       </c>
       <c r="F107">
         <v>-0.7279638547320179</v>
@@ -17120,16 +17120,16 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.5768902348479497</v>
+        <v>0.5986419292445088</v>
       </c>
       <c r="C108">
-        <v>0.5589994791895768</v>
+        <v>0.5102013076748934</v>
       </c>
       <c r="D108">
-        <v>0.5584428503629275</v>
+        <v>0.6514023562735387</v>
       </c>
       <c r="E108">
-        <v>0.5640869843181792</v>
+        <v>0.6150677486866252</v>
       </c>
       <c r="F108">
         <v>0.6636287151969765</v>
@@ -17275,16 +17275,16 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.780775072036208</v>
+        <v>0.7571657738159338</v>
       </c>
       <c r="C109">
-        <v>0.7444110254088251</v>
+        <v>0.6742621033911735</v>
       </c>
       <c r="D109">
-        <v>0.7433058502734295</v>
+        <v>0.8539079724601619</v>
       </c>
       <c r="E109">
-        <v>0.7506461604594407</v>
+        <v>0.7860836160562609</v>
       </c>
       <c r="F109">
         <v>0.8709070631030637</v>
@@ -17430,16 +17430,16 @@
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.154358758379132</v>
+        <v>1.058023587186765</v>
       </c>
       <c r="C110">
-        <v>1.081006806769856</v>
+        <v>0.9884713505061837</v>
       </c>
       <c r="D110">
-        <v>1.078406757734103</v>
+        <v>1.213533641896228</v>
       </c>
       <c r="E110">
-        <v>1.089535101498947</v>
+        <v>1.088443199007085</v>
       </c>
       <c r="F110">
         <v>1.240320054061543</v>
@@ -17585,16 +17585,16 @@
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>1.971984042027656</v>
+        <v>1.795733743333386</v>
       </c>
       <c r="C111">
-        <v>1.831756796460691</v>
+        <v>1.818081144414584</v>
       </c>
       <c r="D111">
-        <v>1.826394813003157</v>
+        <v>2.008987538164602</v>
       </c>
       <c r="E111">
-        <v>1.927725758890948</v>
+        <v>1.69901282969297</v>
       </c>
       <c r="F111">
         <v>2.060853785596785</v>
@@ -17740,16 +17740,16 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.204741280615611</v>
+        <v>2.033901734678772</v>
       </c>
       <c r="C112">
-        <v>2.0672953986514</v>
+        <v>1.957067550559048</v>
       </c>
       <c r="D112">
-        <v>2.059178119521778</v>
+        <v>2.213692002941652</v>
       </c>
       <c r="E112">
-        <v>2.043549422892583</v>
+        <v>1.75231190898284</v>
       </c>
       <c r="F112">
         <v>2.265623221462808</v>
@@ -17895,16 +17895,16 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.789111200708215</v>
+        <v>1.629527478899833</v>
       </c>
       <c r="C113">
-        <v>1.68981839348404</v>
+        <v>1.534380041998747</v>
       </c>
       <c r="D113">
-        <v>1.683575796764891</v>
+        <v>1.814374270308014</v>
       </c>
       <c r="E113">
-        <v>1.634544115495456</v>
+        <v>1.438570801350618</v>
       </c>
       <c r="F113">
         <v>1.850998973310693</v>
@@ -18050,16 +18050,16 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.479970642729936</v>
+        <v>1.379584160771745</v>
       </c>
       <c r="C114">
-        <v>1.41152192189394</v>
+        <v>1.32763156481651</v>
       </c>
       <c r="D114">
-        <v>1.407045850299437</v>
+        <v>1.537184690548057</v>
       </c>
       <c r="E114">
-        <v>1.42726381399682</v>
+        <v>1.258235748549119</v>
       </c>
       <c r="F114">
         <v>1.566590582178625</v>
@@ -18205,16 +18205,16 @@
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.764248092494019</v>
+        <v>1.641697710826514</v>
       </c>
       <c r="C115">
-        <v>1.661453525042567</v>
+        <v>1.58682298940326</v>
       </c>
       <c r="D115">
-        <v>1.654658920350468</v>
+        <v>1.817783668850602</v>
       </c>
       <c r="E115">
-        <v>1.672096677280557</v>
+        <v>1.464860339283396</v>
       </c>
       <c r="F115">
         <v>1.859213411184363</v>
@@ -18360,16 +18360,16 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>2.073402365530114</v>
+        <v>1.918217217504916</v>
       </c>
       <c r="C116">
-        <v>1.934396881298037</v>
+        <v>1.869259124959995</v>
       </c>
       <c r="D116">
-        <v>1.925930486107197</v>
+        <v>2.116937926491275</v>
       </c>
       <c r="E116">
-        <v>1.945262968721473</v>
+        <v>1.696199054172192</v>
       </c>
       <c r="F116">
         <v>2.16934978134588</v>
@@ -18515,16 +18515,16 @@
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.630926540191472</v>
+        <v>1.512735685314554</v>
       </c>
       <c r="C117">
-        <v>1.522626824646437</v>
+        <v>1.438282939767487</v>
       </c>
       <c r="D117">
-        <v>1.515857630010122</v>
+        <v>1.672082830546077</v>
       </c>
       <c r="E117">
-        <v>1.528200308810945</v>
+        <v>1.433090572427584</v>
       </c>
       <c r="F117">
         <v>1.710847384042331</v>
@@ -18670,16 +18670,16 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.143963541492413</v>
+        <v>1.102260660431728</v>
       </c>
       <c r="C118">
-        <v>1.088700852187003</v>
+        <v>1.014654528475965</v>
       </c>
       <c r="D118">
-        <v>1.084349938172301</v>
+        <v>1.19562199553187</v>
       </c>
       <c r="E118">
-        <v>1.094059240770976</v>
+        <v>1.056718393010685</v>
       </c>
       <c r="F118">
         <v>1.218646330774457</v>
@@ -18825,16 +18825,16 @@
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.221734655866741</v>
+        <v>1.161903409921187</v>
       </c>
       <c r="C119">
-        <v>1.150529556909725</v>
+        <v>1.0713337611252</v>
       </c>
       <c r="D119">
-        <v>1.14601297065126</v>
+        <v>1.279920889397491</v>
       </c>
       <c r="E119">
-        <v>1.15548262717979</v>
+        <v>1.124630169812485</v>
       </c>
       <c r="F119">
         <v>1.308238706153929</v>
@@ -18980,16 +18980,16 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.299254376338131</v>
+        <v>2.109286432981188</v>
       </c>
       <c r="C120">
-        <v>2.10670623692309</v>
+        <v>2.042253374174742</v>
       </c>
       <c r="D120">
-        <v>2.096853038233102</v>
+        <v>2.324290025077893</v>
       </c>
       <c r="E120">
-        <v>2.120904479299324</v>
+        <v>1.905498452823844</v>
       </c>
       <c r="F120">
         <v>2.392233654647733</v>
@@ -19135,16 +19135,16 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>2.091432995743301</v>
+        <v>1.909202029214287</v>
       </c>
       <c r="C121">
-        <v>1.924203517524903</v>
+        <v>1.853505260342995</v>
       </c>
       <c r="D121">
-        <v>1.916234307441632</v>
+        <v>2.129141146983916</v>
       </c>
       <c r="E121">
-        <v>1.943336008743533</v>
+        <v>1.74372146819563</v>
       </c>
       <c r="F121">
         <v>2.189747767782221</v>
@@ -19290,16 +19290,16 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.797719311684234</v>
+        <v>1.626011936805583</v>
       </c>
       <c r="C122">
-        <v>1.664682783769724</v>
+        <v>1.577379109540665</v>
       </c>
       <c r="D122">
-        <v>1.658971389538309</v>
+        <v>1.838575270696751</v>
       </c>
       <c r="E122">
-        <v>1.686190721485548</v>
+        <v>1.552949559954745</v>
       </c>
       <c r="F122">
         <v>1.88611234065104</v>
@@ -19445,16 +19445,16 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.33507392398271</v>
+        <v>1.212861716683572</v>
       </c>
       <c r="C123">
-        <v>1.250904961974467</v>
+        <v>1.152815932303743</v>
       </c>
       <c r="D123">
-        <v>1.24769650510244</v>
+        <v>1.390702613051348</v>
       </c>
       <c r="E123">
-        <v>1.264175794333049</v>
+        <v>1.209030098463388</v>
       </c>
       <c r="F123">
         <v>1.421664437008876</v>
@@ -19600,16 +19600,16 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.498461229801227</v>
+        <v>1.349501427040989</v>
       </c>
       <c r="C124">
-        <v>1.409547952376823</v>
+        <v>1.36551296970727</v>
       </c>
       <c r="D124">
-        <v>1.406587781810122</v>
+        <v>1.528492311559157</v>
       </c>
       <c r="E124">
-        <v>1.491083236764096</v>
+        <v>1.389029247875003</v>
       </c>
       <c r="F124">
         <v>1.558992183623988</v>
@@ -19755,16 +19755,16 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.43838697824612</v>
+        <v>1.304897026365794</v>
       </c>
       <c r="C125">
-        <v>1.363529606493459</v>
+        <v>1.319423997836859</v>
       </c>
       <c r="D125">
-        <v>1.360693459579656</v>
+        <v>1.472803657061291</v>
       </c>
       <c r="E125">
-        <v>1.443193584778339</v>
+        <v>1.322555091021351</v>
       </c>
       <c r="F125">
         <v>1.499510562497366</v>
@@ -19910,16 +19910,16 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.7900613335731821</v>
+        <v>-0.6485415986237547</v>
       </c>
       <c r="C126">
-        <v>-0.7150890057586501</v>
+        <v>-0.6880880984368977</v>
       </c>
       <c r="D126">
-        <v>-0.6960920565380508</v>
+        <v>-0.6721209831108824</v>
       </c>
       <c r="E126">
-        <v>-0.7064624256023091</v>
+        <v>-0.7269518685479526</v>
       </c>
       <c r="F126">
         <v>-0.6825871241691158</v>
@@ -20065,16 +20065,16 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6104971481891838</v>
+        <v>0.6477689642656012</v>
       </c>
       <c r="C127">
-        <v>0.6061644426923161</v>
+        <v>0.5506589717240631</v>
       </c>
       <c r="D127">
-        <v>0.6054939000162716</v>
+        <v>0.6854383273156465</v>
       </c>
       <c r="E127">
-        <v>0.6123772084734622</v>
+        <v>0.6148208724117423</v>
       </c>
       <c r="F127">
         <v>0.6956565333236236</v>
@@ -20220,16 +20220,16 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.286277339439939</v>
+        <v>0.3765934037335013</v>
       </c>
       <c r="C128">
-        <v>0.3087694761742289</v>
+        <v>0.2791219284301414</v>
       </c>
       <c r="D128">
-        <v>0.310356320594431</v>
+        <v>0.3696261528603664</v>
       </c>
       <c r="E128">
-        <v>0.3145296677818591</v>
+        <v>0.3344467702619843</v>
       </c>
       <c r="F128">
         <v>0.3740263529504936</v>
@@ -20375,16 +20375,16 @@
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>0.9611450374441809</v>
+        <v>0.9468589794676451</v>
       </c>
       <c r="C129">
-        <v>0.9178273151622524</v>
+        <v>0.8529472612780536</v>
       </c>
       <c r="D129">
-        <v>0.9143420768788595</v>
+        <v>1.015329490461721</v>
       </c>
       <c r="E129">
-        <v>0.9225336517650311</v>
+        <v>0.9212813293656408</v>
       </c>
       <c r="F129">
         <v>1.034348231805344</v>
@@ -20530,16 +20530,16 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.5278334089894815</v>
+        <v>0.5788448195264012</v>
       </c>
       <c r="C130">
-        <v>0.5255594037220706</v>
+        <v>0.4853215254172895</v>
       </c>
       <c r="D130">
-        <v>0.5248536577879928</v>
+        <v>0.5905205668132947</v>
       </c>
       <c r="E130">
-        <v>0.5307767370070611</v>
+        <v>0.5496173880888935</v>
       </c>
       <c r="F130">
         <v>0.5985000040218041</v>
@@ -20685,16 +20685,16 @@
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.166130722363445</v>
+        <v>1.114999321265249</v>
       </c>
       <c r="C131">
-        <v>1.100508931915898</v>
+        <v>1.023003137870162</v>
       </c>
       <c r="D131">
-        <v>1.096289158816573</v>
+        <v>1.225568579353793</v>
       </c>
       <c r="E131">
-        <v>1.105433067565393</v>
+        <v>1.082525606456952</v>
       </c>
       <c r="F131">
         <v>1.252211069314358</v>
@@ -20840,16 +20840,16 @@
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.5780743482337</v>
+        <v>1.449104424202864</v>
       </c>
       <c r="C132">
-        <v>1.460832197203735</v>
+        <v>1.373449344178708</v>
       </c>
       <c r="D132">
-        <v>1.454602218604099</v>
+        <v>1.618466052128303</v>
       </c>
       <c r="E132">
-        <v>1.466800645422899</v>
+        <v>1.412943243225383</v>
       </c>
       <c r="F132">
         <v>1.659128317121788</v>
@@ -20995,16 +20995,16 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.5504550553242691</v>
+        <v>0.562621573841618</v>
       </c>
       <c r="C133">
-        <v>0.535309384383691</v>
+        <v>0.4789116658885053</v>
       </c>
       <c r="D133">
-        <v>0.5355756017638706</v>
+        <v>0.6323744671938241</v>
       </c>
       <c r="E133">
-        <v>0.5414695485426401</v>
+        <v>0.591381143514507</v>
       </c>
       <c r="F133">
         <v>0.6437562993302988</v>
@@ -21150,16 +21150,16 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.8692116413024931</v>
+        <v>0.8169149104393525</v>
       </c>
       <c r="C134">
-        <v>0.821597380151153</v>
+        <v>0.7418674798371997</v>
       </c>
       <c r="D134">
-        <v>0.8204892268470583</v>
+        <v>0.9382787114906471</v>
       </c>
       <c r="E134">
-        <v>0.8287289357988361</v>
+        <v>0.863788400368066</v>
       </c>
       <c r="F134">
         <v>0.9572592049132205</v>
@@ -21305,16 +21305,16 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.5916164971718101</v>
+        <v>0.581962711940884</v>
       </c>
       <c r="C135">
-        <v>0.5720076173387028</v>
+        <v>0.5019105187582179</v>
       </c>
       <c r="D135">
-        <v>0.5728041446186167</v>
+        <v>0.6773092272116973</v>
       </c>
       <c r="E135">
-        <v>0.5794706875133601</v>
+        <v>0.6274001691692673</v>
       </c>
       <c r="F135">
         <v>0.6890985900064661</v>
@@ -21460,16 +21460,16 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.2874263593504552</v>
+        <v>0.3141119667870305</v>
       </c>
       <c r="C136">
-        <v>0.2886167446612324</v>
+        <v>0.2479548577696165</v>
       </c>
       <c r="D136">
-        <v>0.2910420453486765</v>
+        <v>0.3682323509103022</v>
       </c>
       <c r="E136">
-        <v>0.2957638355534821</v>
+        <v>0.3563814296545883</v>
       </c>
       <c r="F136">
         <v>0.3716310366672581</v>
@@ -21615,16 +21615,16 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.1883412200858984</v>
+        <v>-0.1003255208976858</v>
       </c>
       <c r="C137">
-        <v>-0.1505122343311728</v>
+        <v>-0.1547120378119067</v>
       </c>
       <c r="D137">
-        <v>-0.1448139545652637</v>
+        <v>-0.09672965198306242</v>
       </c>
       <c r="E137">
-        <v>-0.1431682335683753</v>
+        <v>-0.1064594328304387</v>
       </c>
       <c r="F137">
         <v>-0.1022786548339585</v>
@@ -21770,16 +21770,16 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.1629018982752468</v>
+        <v>0.2364054822584766</v>
       </c>
       <c r="C138">
-        <v>0.188588437200912</v>
+        <v>0.1538366734084162</v>
       </c>
       <c r="D138">
-        <v>0.1915970764580625</v>
+        <v>0.2473316828778979</v>
       </c>
       <c r="E138">
-        <v>0.196287203227887</v>
+        <v>0.2176889788011496</v>
       </c>
       <c r="F138">
         <v>0.2473690457346782</v>
